--- a/public/files/template/inventory/kibf.xlsx
+++ b/public/files/template/inventory/kibf.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>NOMOR</t>
   </si>
@@ -150,6 +150,27 @@
   </si>
   <si>
     <t xml:space="preserve"> [a.tanah] </t>
+  </si>
+  <si>
+    <t>[b.kd_prov]</t>
+  </si>
+  <si>
+    <t>[b.kd_kab]</t>
+  </si>
+  <si>
+    <t>BIDANG KESEHATAN</t>
+  </si>
+  <si>
+    <t>SUDIN KESEHATAN MASYARAKAT</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_kec]</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_upb]</t>
+  </si>
+  <si>
+    <t>[b.kode]</t>
   </si>
 </sst>
 </file>
@@ -159,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +214,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -371,8 +398,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -382,91 +490,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,43 +619,7 @@
       <sheetData sheetId="25" refreshError="1"/>
       <sheetData sheetId="26" refreshError="1"/>
       <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1">
-        <row r="3">
-          <cell r="G3" t="str">
-            <v>DAERAH KHUSUS IBUKOTA JAKARTA</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>KOTA JAKARTA TIMUR</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5" t="str">
-            <v>BIDANG KESEHATAN</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6" t="str">
-            <v>SUDIN KESEHATAN MASYARAKAT</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7" t="str">
-            <v>PKM KEC. MATRAMAN</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8" t="str">
-            <v>PKM KEC. MATRAMAN</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9" t="str">
-            <v>11.09.05.07.01.09.57.00</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="28" refreshError="1"/>
       <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -894,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,519 +915,511 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="str">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="str">
         <f>'[1]KIB A'!B3</f>
         <v>Provinsi</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="20" t="str">
-        <f>'[1]KIB E'!G3</f>
-        <v>DAERAH KHUSUS IBUKOTA JAKARTA</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="G3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="str">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="str">
         <f>'[1]KIB A'!B4</f>
         <v>Kab./Kota</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="20" t="str">
-        <f>'[1]KIB E'!G4</f>
-        <v>KOTA JAKARTA TIMUR</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="G4" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="str">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="str">
         <f>'[1]KIB A'!B5</f>
         <v>Bidang</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="20" t="str">
-        <f>'[1]KIB E'!G5</f>
-        <v>BIDANG KESEHATAN</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="G5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="str">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="str">
         <f>'[1]KIB A'!B6</f>
         <v>Unit Organisasi</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="20" t="str">
-        <f>'[1]KIB E'!G6</f>
-        <v>SUDIN KESEHATAN MASYARAKAT</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="G6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="str">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="str">
         <f>'[1]KIB A'!B7</f>
         <v>Sub Unit Organisasi</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="20" t="str">
-        <f>'[1]KIB E'!G7</f>
-        <v>PKM KEC. MATRAMAN</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="G7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="str">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="str">
         <f>'[1]KIB A'!B8</f>
         <v>U P B</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="20" t="str">
-        <f>'[1]KIB E'!G8</f>
-        <v>PKM KEC. MATRAMAN</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="G8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="str">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="str">
         <f>'[1]KIB A'!B9</f>
         <v xml:space="preserve">NO. KODE LOKASI </v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="20" t="str">
-        <f>'[1]KIB E'!G9</f>
-        <v>11.09.05.07.01.09.57.00</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="G9" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="29"/>
+      <c r="I12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="4">
         <v>5</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <v>6</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="4">
         <v>7</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="4">
         <v>8</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="4">
         <v>9</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="4">
         <v>10</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="4">
         <v>11</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="4">
         <v>12</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="4">
         <v>13</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="5">
         <v>14</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="31"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B2:S2"/>
     <mergeCell ref="P12:P14"/>
     <mergeCell ref="Q12:Q14"/>
     <mergeCell ref="E12:E14"/>
@@ -1438,10 +1427,11 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="O12:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/files/template/inventory/kibf.xlsx
+++ b/public/files/template/inventory/kibf.xlsx
@@ -128,12 +128,6 @@
     <t xml:space="preserve"> [a.bangunan]</t>
   </si>
   <si>
-    <t>[a.pilihan_konstruksi_bertingkat]</t>
-  </si>
-  <si>
-    <t>[a.pilihan_konstruksi_beton]</t>
-  </si>
-  <si>
     <t>[a.luas]</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>[b.kode]</t>
+  </si>
+  <si>
+    <t>[a.tingkat]</t>
+  </si>
+  <si>
+    <t>[a.beton]</t>
   </si>
 </sst>
 </file>
@@ -475,32 +475,32 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,7 +892,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,13 +967,11 @@
         <v>Provinsi</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>41</v>
+      <c r="E3" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -995,13 +993,11 @@
         <v>Kab./Kota</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>42</v>
+      <c r="E4" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -1023,13 +1019,11 @@
         <v>Bidang</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>43</v>
+      <c r="E5" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -1051,13 +1045,11 @@
         <v>Unit Organisasi</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>44</v>
+      <c r="E6" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -1079,13 +1071,11 @@
         <v>Sub Unit Organisasi</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>45</v>
+      <c r="E7" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1107,13 +1097,11 @@
         <v>U P B</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>46</v>
+      <c r="E8" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -1135,13 +1123,11 @@
         <v xml:space="preserve">NO. KODE LOKASI </v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>47</v>
+      <c r="E9" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -1205,39 +1191,39 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30" t="s">
+      <c r="L12" s="34"/>
+      <c r="M12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1246,52 +1232,52 @@
       <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
@@ -1381,28 +1367,28 @@
         <v>32</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="K17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>28</v>
